--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_DetailsPage.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_DetailsPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5484E5-CF97-4D8D-ABE5-716B11CA3FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA30E351-7A35-4535-A541-3275EED3EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Keyword</t>
   </si>
@@ -211,24 +211,6 @@
     <t>getData=AOC</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01 - STATE ACCEPTANCE AGENCIES </t>
-  </si>
-  <si>
-    <t>dropdown_AgencyType_value</t>
-  </si>
-  <si>
-    <t>dropdown_GAAPFunction_value</t>
-  </si>
-  <si>
-    <t>dropdown_State_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OTHER </t>
-  </si>
-  <si>
     <t>Automation12</t>
   </si>
   <si>
@@ -244,14 +226,23 @@
     <t>link_random_radio</t>
   </si>
   <si>
-    <t>click</t>
+    <t>selectByVisibleText</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AK - AK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01 - TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O - OTHER </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,12 +269,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -353,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,9 +346,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63821BDA-AAAA-4974-9A05-DF5FB56D766C}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -829,7 +811,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
@@ -842,14 +824,14 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
+      <c r="A11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -860,24 +842,24 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
+      <c r="A13" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -885,41 +867,41 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
+      <c r="A15" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
+      <c r="A16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -930,52 +912,52 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
+      <c r="A18" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
+      <c r="A20" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -983,10 +965,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -997,13 +979,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1014,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
@@ -1024,48 +1006,35 @@
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1077,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021B6EF0-90FF-40E9-AC8A-72CA956AA274}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1155,19 +1124,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5">
-        <v>8732873486</v>
+        <v>8789073486</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>44</v>
@@ -1179,13 +1148,13 @@
         <v>45</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>45</v>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_DetailsPage.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_MIS_AgencyProfile_DetailsPage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA30E351-7A35-4535-A541-3275EED3EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8296592A-314C-45AC-963E-BE0D308DF761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{028E05FB-8546-4956-9092-7967216C1B9D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Keyword</t>
   </si>
@@ -67,18 +67,12 @@
     <t>jsClick</t>
   </si>
   <si>
-    <t>link_veryAgencyProfile</t>
-  </si>
-  <si>
     <t>txt_Agency</t>
   </si>
   <si>
     <t>txt_title</t>
   </si>
   <si>
-    <t>button_Status</t>
-  </si>
-  <si>
     <t>txt_PhoneNumber</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Select Agency in dropdown</t>
-  </si>
-  <si>
     <t>AgencyData</t>
   </si>
   <si>
@@ -223,9 +214,6 @@
     <t>link_radiobutton</t>
   </si>
   <si>
-    <t>link_random_radio</t>
-  </si>
-  <si>
     <t>selectByVisibleText</t>
   </si>
   <si>
@@ -236,6 +224,15 @@
   </si>
   <si>
     <t xml:space="preserve"> O - OTHER </t>
+  </si>
+  <si>
+    <t>Valid Input</t>
+  </si>
+  <si>
+    <t>button_setStatus</t>
+  </si>
+  <si>
+    <t>link_AgencyProfile_wait</t>
   </si>
 </sst>
 </file>
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63821BDA-AAAA-4974-9A05-DF5FB56D766C}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -716,10 +713,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -730,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -744,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -758,10 +755,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -772,10 +769,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -786,10 +783,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -800,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -811,13 +808,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -828,10 +825,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -842,10 +839,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -856,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -867,13 +864,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -884,10 +881,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -895,13 +892,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -912,10 +909,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -926,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
@@ -940,10 +937,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -954,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -968,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
@@ -978,29 +975,17 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
@@ -1046,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021B6EF0-90FF-40E9-AC8A-72CA956AA274}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,55 +1050,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1121,43 +1106,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5">
         <v>8789073486</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2" s="5">
         <v>45678</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
